--- a/data/trans_orig/P14C26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71619B94-B997-4030-AEB7-A30A0A42D107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62ED8E5-516B-45B3-8DAB-DB41DE22BE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE496C24-A93C-40C9-B65F-5A1DC8BBA107}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F98D48D-3607-4D9F-84C4-9CD306BC6D53}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
     <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -104,9 +104,15 @@
     <t>75,69%</t>
   </si>
   <si>
+    <t>25,11%</t>
+  </si>
+  <si>
     <t>24,31%</t>
   </si>
   <si>
+    <t>74,89%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -119,12 +125,18 @@
     <t>59,77%</t>
   </si>
   <si>
+    <t>19,39%</t>
+  </si>
+  <si>
     <t>50,2%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
+    <t>80,61%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -134,10 +146,10 @@
     <t>58,35%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
   </si>
   <si>
     <t>73,75%</t>
@@ -149,28 +161,28 @@
     <t>64,08%</t>
   </si>
   <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>71,05%</t>
+    <t>71,34%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>52,79%</t>
+    <t>54,0%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>55,2%</t>
   </si>
   <si>
     <t>26,25%</t>
@@ -182,7 +194,7 @@
     <t>18,21%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>53,51%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -191,43 +203,49 @@
     <t>66,42%</t>
   </si>
   <si>
-    <t>27,93%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>45,65%</t>
+    <t>49,33%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>72,07%</t>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>41,94%</t>
+    <t>43,08%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -236,13 +254,13 @@
     <t>8,89%</t>
   </si>
   <si>
-    <t>38,74%</t>
+    <t>38,81%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>21,76%</t>
+    <t>22,94%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -251,10 +269,10 @@
     <t>77,65%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>70,35%</t>
@@ -269,10 +287,10 @@
     <t>73,11%</t>
   </si>
   <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>15,01%</t>
@@ -281,7 +299,7 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>32,66%</t>
+    <t>33,87%</t>
   </si>
   <si>
     <t>21,68%</t>
@@ -296,16 +314,16 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>24,88%</t>
+    <t>22,21%</t>
   </si>
   <si>
     <t>7,97%</t>
@@ -320,91 +338,91 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB53021-B1D0-4A5E-80AE-D75DC56523BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF46538-6CB5-4D7E-9FAE-8A3B9666EF7C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1157,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -1172,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -1203,13 +1221,13 @@
         <v>868</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -1218,13 +1236,13 @@
         <v>868</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1273,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,7 +1345,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1354,7 +1372,7 @@
         <v>1852</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
@@ -1369,10 +1387,10 @@
         <v>2772</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>16</v>
@@ -1405,7 +1423,7 @@
         <v>1866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
@@ -1420,13 +1438,13 @@
         <v>1866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,7 +1480,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1477,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,7 +1551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,13 +1563,13 @@
         <v>4307</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1560,10 +1578,10 @@
         <v>3232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1575,13 +1593,13 @@
         <v>7538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1614,13 @@
         <v>2083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1617,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1626,13 +1644,13 @@
         <v>2083</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1665,13 @@
         <v>992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1662,13 +1680,13 @@
         <v>1150</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1677,13 +1695,13 @@
         <v>2142</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1757,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1769,13 @@
         <v>7840</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -1766,10 +1784,10 @@
         <v>9589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -1781,13 +1799,13 @@
         <v>17429</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1820,13 @@
         <v>3964</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1817,13 +1835,13 @@
         <v>1169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1832,13 +1850,13 @@
         <v>5132</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1859,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1868,13 +1886,13 @@
         <v>1050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1883,13 +1901,13 @@
         <v>1050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,7 +1963,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1957,13 +1975,13 @@
         <v>19422</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
@@ -1972,13 +1990,13 @@
         <v>28932</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -1987,13 +2005,13 @@
         <v>48354</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2026,13 @@
         <v>3756</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2023,13 +2041,13 @@
         <v>8916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2038,13 +2056,13 @@
         <v>12671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2077,13 @@
         <v>1836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -2074,13 +2092,13 @@
         <v>3280</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2089,13 +2107,13 @@
         <v>5115</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2181,13 @@
         <v>32490</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -2178,13 +2196,13 @@
         <v>46305</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>76</v>
@@ -2193,13 +2211,13 @@
         <v>78796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2232,13 @@
         <v>10809</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -2229,13 +2247,13 @@
         <v>12818</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -2244,13 +2262,13 @@
         <v>23627</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2283,13 @@
         <v>2828</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -2280,13 +2298,13 @@
         <v>5480</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2295,13 +2313,13 @@
         <v>8307</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2375,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C26-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62ED8E5-516B-45B3-8DAB-DB41DE22BE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF212E38-ED2C-44E6-BA9E-1572C1812FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F98D48D-3607-4D9F-84C4-9CD306BC6D53}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA4E3761-B841-4325-9E89-C87616446EFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
-    <t>Población según el tiempo de diagnóstico del hipoacusia en 2015 (Tasa respuesta: 1,61%)</t>
+    <t>Población según el tiempo de diagnóstico del hipoacusia en 2016 (Tasa respuesta: 1,61%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -104,13 +104,13 @@
     <t>75,69%</t>
   </si>
   <si>
-    <t>25,11%</t>
+    <t>6,99%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>74,89%</t>
+    <t>93,01%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -146,55 +146,55 @@
     <t>58,35%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>73,75%</t>
   </si>
   <si>
-    <t>9,47%</t>
+    <t>23,17%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>71,34%</t>
+    <t>72,22%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>54,0%</t>
+    <t>53,59%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>55,2%</t>
+    <t>55,41%</t>
   </si>
   <si>
     <t>26,25%</t>
   </si>
   <si>
-    <t>90,53%</t>
+    <t>76,83%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>53,51%</t>
+    <t>53,94%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -203,49 +203,49 @@
     <t>66,42%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>49,33%</t>
+    <t>49,53%</t>
   </si>
   <si>
     <t>73,82%</t>
   </si>
   <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
   </si>
   <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>43,08%</t>
+    <t>41,7%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -254,13 +254,13 @@
     <t>8,89%</t>
   </si>
   <si>
-    <t>38,81%</t>
+    <t>38,76%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>22,94%</t>
+    <t>23,39%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -269,151 +269,151 @@
     <t>77,65%</t>
   </si>
   <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>21,68%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>22,21%</t>
+    <t>22,09%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>70,44%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
   </si>
   <si>
     <t>7,5%</t>
@@ -422,7 +422,7 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>14,03%</t>
+    <t>14,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -837,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF46538-6CB5-4D7E-9FAE-8A3B9666EF7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF6A390-B416-43A2-8FDB-8212006ECFC3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
